--- a/data til pbi/boligbygging_bybåndet.xlsx
+++ b/data til pbi/boligbygging_bybåndet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/kjell-tore_haustveit_vtfk_no/Documents/PowerBI/areal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeidsområde\github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_B45A6EC7D14CD52843774894881B6CB620D4F2E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC641A7-475B-46FB-BFF1-4CD18AFCD8F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FFCF8-FFF8-4F9E-BB26-AAF0597AC448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25608" yWindow="264" windowWidth="23016" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
   <si>
     <t>År</t>
   </si>
@@ -570,18 +570,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,485 +595,541 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>2021</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>2021</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>2021</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2019</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2019</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>2018</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>2018</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>2018</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>2018</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>2017</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>2017</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>2016</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>2016</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>2016</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>2016</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>2015</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>2015</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>2015</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>2015</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29">
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
-    <sortCondition descending="1" ref="A6:A49"/>
-    <sortCondition ref="B6:B49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:D53">
+    <sortCondition descending="1" ref="A10:A53"/>
+    <sortCondition ref="B10:B53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
